--- a/s1.xlsx
+++ b/s1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-hst\PycharmProjects\stagebba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-hst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0CEE2-0CFD-4A66-BF0A-F490F50F797F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F8E0C8-F163-4791-B791-13E8E1DAA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="229">
   <si>
     <t>القسم</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>https://chatgpt.com/c/68270791-b0d0-8013-9092-89aa247250ca</t>
+  </si>
+  <si>
+    <t>smail.html</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,6 +1136,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">

--- a/s1.xlsx
+++ b/s1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-hst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F8E0C8-F163-4791-B791-13E8E1DAA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B710EE75-AD3B-4B70-992B-69D9F04728C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
     <t>https://chatgpt.com/c/68270791-b0d0-8013-9092-89aa247250ca</t>
   </si>
   <si>
-    <t>smail.html</t>
+    <t>https://drive.google.com/file/d/1ZcK5QO5dI85ZHFPaTUnzm8fY92L5YB3C/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
